--- a/data/experiments/sampling/undersampling/undersampling_model_metrics.xlsx
+++ b/data/experiments/sampling/undersampling/undersampling_model_metrics.xlsx
@@ -1,111 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>imputed</t>
-  </si>
-  <si>
-    <t>train_test_split</t>
-  </si>
-  <si>
-    <t>test_data</t>
-  </si>
-  <si>
-    <t>Tomeklinks</t>
-  </si>
-  <si>
-    <t>NearMiss</t>
-  </si>
-  <si>
-    <t>Neighbourhood Cleaning</t>
-  </si>
-  <si>
-    <t>ClusterCentroid_8</t>
-  </si>
-  <si>
-    <t>ClusterCentroid_4</t>
-  </si>
-  <si>
-    <t>ClusterCentroid_2</t>
-  </si>
-  <si>
-    <t>roc_auc_test</t>
-  </si>
-  <si>
-    <t>roc_auc_train</t>
-  </si>
-  <si>
-    <t>f1_test</t>
-  </si>
-  <si>
-    <t>f1_train</t>
-  </si>
-  <si>
-    <t>recall_test</t>
-  </si>
-  <si>
-    <t>recall_train</t>
-  </si>
-  <si>
-    <t>quantity_change</t>
-  </si>
-  <si>
-    <t>Counter({0.0: 20})</t>
-  </si>
-  <si>
-    <t>Counter({0.0: 625})</t>
-  </si>
-  <si>
-    <t>Counter({0.0: 104})</t>
-  </si>
-  <si>
-    <t>Counter({0.0: 275})</t>
-  </si>
-  <si>
-    <t>Counter({0.0: 475})</t>
-  </si>
-  <si>
-    <t>Counter({0.0: 575})</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -120,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -436,258 +420,311 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>imputed</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>train_test_split</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>test_data</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Tomeklinks</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>NearMiss</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Neighbourhood Cleaning</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ClusterCentroid_8</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>ClusterCentroid_4</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ClusterCentroid_2</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>roc_auc_test</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>0.5</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>0.5</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>0.5</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
+        <v>0.5664383561643835</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.5667808219178082</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.5777397260273973</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.5613013698630136</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.4965753424657534</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.7133561643835616</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>roc_auc_train</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>0.5</v>
       </c>
-      <c r="F2">
-        <v>0.5856643356643356</v>
-      </c>
-      <c r="G2">
-        <v>0.5664335664335663</v>
-      </c>
-      <c r="H2">
-        <v>0.5349650349650349</v>
-      </c>
-      <c r="I2">
-        <v>0.5786713286713286</v>
-      </c>
-      <c r="J2">
-        <v>0.6136363636363635</v>
+      <c r="C3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6398676062353192</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.5551195814648729</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.6546951740337391</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.6197683109118086</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.5513292761050609</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.7489723467862481</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>0.5</v>
-      </c>
-      <c r="C3">
-        <v>0.5</v>
-      </c>
-      <c r="D3">
-        <v>0.5</v>
-      </c>
-      <c r="E3">
-        <v>0.5</v>
-      </c>
-      <c r="F3">
-        <v>0.5992592592592593</v>
-      </c>
-      <c r="G3">
-        <v>0.6781481481481481</v>
-      </c>
-      <c r="H3">
-        <v>0.6155555555555556</v>
-      </c>
-      <c r="I3">
-        <v>0.7144444444444444</v>
-      </c>
-      <c r="J3">
-        <v>0.6907407407407408</v>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>f1_test</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.2142857142857142</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1395348837209303</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.2162162162162162</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.1935483870967742</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.3283582089552239</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.184331797235023</v>
-      </c>
-      <c r="G4">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="H4">
-        <v>0.1333333333333334</v>
-      </c>
-      <c r="I4">
-        <v>0.2439024390243902</v>
-      </c>
-      <c r="J4">
-        <v>0.3111111111111111</v>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>f1_train</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.4210526315789473</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.1596958174904943</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.1846153846153846</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.3977272727272728</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.1612903225806452</v>
-      </c>
-      <c r="G5">
-        <v>0.4470588235294117</v>
-      </c>
-      <c r="H5">
-        <v>0.3529411764705882</v>
-      </c>
-      <c r="I5">
-        <v>0.4893617021276596</v>
-      </c>
-      <c r="J5">
-        <v>0.4329896907216494</v>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>recall_test</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.55</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="G6">
-        <v>0.1538461538461539</v>
-      </c>
-      <c r="H6">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="I6">
-        <v>0.1923076923076923</v>
-      </c>
-      <c r="J6">
-        <v>0.2692307692307692</v>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>recall_train</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.3392857142857143</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.1071428571428571</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.625</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.8</v>
-      </c>
-      <c r="G7">
-        <v>0.38</v>
-      </c>
-      <c r="H7">
-        <v>0.24</v>
-      </c>
-      <c r="I7">
-        <v>0.46</v>
-      </c>
-      <c r="J7">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" t="s">
-        <v>21</v>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>quantity_change</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Counter({0.0: 24})</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Counter({0.0: 613})</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Counter({0.0: 110})</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Counter({0.0: 221})</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Counter({0.0: 445})</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Counter({0.0: 557})</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>